--- a/dcomtestcasegeneration/Template/SAIC_AS28_R1.0_DCOM.xlsx
+++ b/dcomtestcasegeneration/Template/SAIC_AS28_R1.0_DCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B2B3D5-4E90-427D-986A-3B68EA1489C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3F115-F4FB-4B9F-821B-E4F2FA9AF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2445" windowWidth="23010" windowHeight="14490" xr2:uid="{DB9EBBC0-B05C-484D-8414-653A215FB2F1}"/>
+    <workbookView xWindow="13095" yWindow="1740" windowWidth="14685" windowHeight="14490" xr2:uid="{DB9EBBC0-B05C-484D-8414-653A215FB2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -338,313 +338,7 @@
     <t>2.1.8 Service 2Eh - Write Data by Identifier</t>
   </si>
   <si>
-    <t>2.1.10 Service 31h - Routine Control</t>
-  </si>
-  <si>
-    <t>2.1.12 Service 85h - Control DTC Setting</t>
-  </si>
-  <si>
     <t>2.1.2 Service 11h - ECU Reset</t>
-  </si>
-  <si>
-    <t>2.1.2.6 Check all allowed diagnostic sessions in service 0x11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON
-2) Change to Default session with service 0x10 01
-3) Read active session with service 0x22 F1 86
-4) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-5) Wait 7000 ms
-6) Read active session with service 0x22 F1 86
-7) Change to Extended session with service 0x10 03
-8) Read active session with service 0x22 F1 86
-9) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-10) Wait 7000 ms
-11) Read active session with service 0x22 F1 86
-12) Change to Programming session with service 0x10 02
-13) Read active session with service 0x22 F1 86
-14) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-15) Wait 7000 ms
-16) Read active session with service 0x22 F1 86
-17) Tester present OFF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received:0x 62 F1 86 01
-4) Negative response is received: 0x7F 51 7F
-5) -
-6) Positive response is received:0x 62 F1 86 01
-7) -
-8) Positive response is received:0x 62 F1 86 03
-9) Positive response is received: 0x51 01
-10) -
-11) Positive response is received:0x 62 F1 86 01
-12) -
-13) Positive response is received:0x 62 F1 86 02
-14) Positive response is received: 0x51 01
-15) -
-16) Positive response is received:0x 62 F1 86 01
-17) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
-2) DiagSessionCtrl(Default)
-3) RequestResponse(22f186,62f18601, Equal)
-4) RequestResponse(1101, 7f517f, Equal)
-5) wait(7000)
-6) RequestResponse(22f186,62f18601, Equal)
-7) DiagSessionCtrl(Extended)
-8) RequestResponse(22f186,62f18603, Equal)
-9) RequestResponse(1101, 5101, Equal)
-10) wait(7000)
-11) RequestResponse(22f186,62f18601, Equal)
-12) DiagSessionCtrl(Programming)
-13) RequestResponse(22f186,62f18602, Equal)
-14) RequestResponse(1101, 5101, Equal)
-15) wait(7000)
-16) RequestResponse(22f186,62f18601, Equal)
-17) envvar(EnvTesterPresentOnOff(0;0))
-</t>
-  </si>
-  <si>
-    <t>2.1.2.7 Check all supported addressing mode in service 0x11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON
-2) Change to Default session with service 0x10 01
-3) Read active session with service 0x22 F1 86
-4) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-5) Wait 7000 ms
-6) Read active session with service 0x22 F1 86
-7) Change to Extended session with service 0x10 03
-8) Read active session with service 0x22 F1 86
-9) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-10) Wait 7000 ms
-11) Read active session with service 0x22 F1 86
-12) Change to Programming session with service 0x10 02
-13) Read active session with service 0x22 F1 86
-14) Request reset the camera with service 0x11 01 in Functional Addressing Mode
-15) Wait 7000 ms
-16) Read active session with service 0x22 F1 86
-17) Tester present OFF
-18) Tester present ON
-19) Change to Default session with service 0x10 01
-20) Read active session with service 0x22 F1 86
-21) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-22) Wait 7000 ms
-23) Read active session with service 0x22 F1 86
-24) Change to Extended session with service 0x10 03
-25) Read active session with service 0x22 F1 86
-26) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-27) Wait 7000 ms
-28) Read active session with service 0x22 F1 86
-29) Change to Programming session with service 0x10 02
-30) Read active session with service 0x22 F1 86
-31) Request reset the camera with service 0x11 01 in Physical Addressing Mode
-32) Wait 7000 ms
-33) Read active session with service 0x22 F1 86
-34) Tester present OFF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received:0x 62 F1 86 01
-4) No response is received
-5) -
-6) Positive response is received:0x 62 F1 86 01
-7) -
-8) Positive response is received:0x 62 F1 86 03
-9) No response is received
-10) -
-11) Positive response is received:0x 62 F1 86 01
-12) -
-13) Positive response is received:0x 62 F1 86 02
-14) No response is received
-15) -
-16) Positive response is received:0x 62 F1 86 01
-17) -
-18) -
-19) -
-20) Positive response is received:0x 62 F1 86 01
-21) Negative response is received: 0x7F 51 7F
-22) -
-23) Positive response is received:0x 62 F1 86 01
-24) -
-25) Positive response is received:0x 62 F1 86 03
-26) Positive response is received: 0x51 01
-27) -
-28) Positive response is received:0x 62 F1 86 01
-29) -
-30) Positive response is received:0x 62 F1 86 02
-31) Positive response is received: 0x51 01
-32) -
-33) Positive response is received:0x 62 F1 86 01
-34) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
-2) DiagSessionCtrl(Default)
-3) RequestResponse(22f186,62f18601, Equal)
-4) FunctionalMessage(1101, , None)
-5) wait(7000)
-6) RequestResponse(22f186,62f18601, Equal)
-7) DiagSessionCtrl(Extended)
-8) RequestResponse(22f186,62f18603, Equal)
-9) FunctionalMessage(1101, , None)
-10) wait(7000)
-11) RequestResponse(22f186,62f18601, Equal)
-12) DiagSessionCtrl(Programming)
-13) RequestResponse(22f186,62f18602, Equal)
-14) FunctionalMessage(1101, , None)
-15) wait(7000)
-16) RequestResponse(22f186,62f18601, Equal)
-17) envvar(EnvTesterPresentOnOff(0;0))
-18) envvar(EnvTesterPresentOnOff(1;0))
-19) DiagSessionCtrl(Default)
-20) RequestResponse(22f186,62f18601, Equal)
-21) RequestResponse(1101, 7f517f, Equal)
-22) wait(7000)
-23) RequestResponse(22f186,62f18601, Equal)
-24) DiagSessionCtrl(Extended)
-25) RequestResponse(22f186,62f18603, Equal)
-26) RequestResponse(1101, 5101, Equal)
-27) wait(7000)
-28) RequestResponse(22f186,62f18601, Equal)
-29) DiagSessionCtrl(Programming)
-30) RequestResponse(22f186,62f18602, Equal)
-31) RequestResponse(1101, 5101, Equal)
-32) wait(7000)
-33) RequestResponse(22f186,62f18601, Equal)
-34) envvar(EnvTesterPresentOnOff(0;0))
-</t>
-  </si>
-  <si>
-    <t>2.1.2.8 Check suppress bit in service 0x11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tester present ON
-2) Change to Default session with service 0x10 01
-3) Read active session with service 0x22 F1 86
-4) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-5) Wait 7000 ms
-6) Read active session with service 0x22 F1 86
-7) Change to Extended session with service 0x10 03
-8) Read active session with service 0x22 F1 86
-9) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-10) Wait 7000 ms
-11) Read active session with service 0x22 F1 86
-12) Change to Programming session with service 0x10 02
-13) Read active session with service 0x22 F1 86
-14) Request reset the camera with service 0x11 81 in Functional Addressing Mode
-15) Wait 7000 ms
-16) Read active session with service 0x22 F1 86
-17) Tester present OFF
-18) Tester present ON
-19) Change to Default session with service 0x10 01
-20) Read active session with service 0x22 F1 86
-21) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-22) Wait 7000 ms
-23) Read active session with service 0x22 F1 86
-24) Change to Extended session with service 0x10 03
-25) Read active session with service 0x22 F1 86
-26) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-27) Wait 7000 ms
-28) Read active session with service 0x22 F1 86
-29) Change to Programming session with service 0x10 02
-30) Read active session with service 0x22 F1 86
-31) Request reset the camera with service 0x11 81 in Physical Addressing Mode
-32) Wait 7000 ms
-33) Read active session with service 0x22 F1 86
-34) Tester present OFF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) -
-2) -
-3) Positive response is received:0x 62 F1 86 01
-4) No response is received
-5) -
-6) Positive response is received:0x 62 F1 86 01
-7) -
-8) Positive response is received:0x 62 F1 86 03
-9) No response is received
-10) -
-11) Positive response is received:0x 62 F1 86 01
-12) -
-13) Positive response is received:0x 62 F1 86 02
-14) No response is received
-15) -
-16) Positive response is received:0x 62 F1 86 01
-17) -
-18) -
-19) -
-20) Positive response is received:0x 62 F1 86 01
-21) Negative response is received: 0x7F 51 7F
-22) -
-23) Positive response is received:0x 62 F1 86 01
-24) -
-25) Positive response is received:0x 62 F1 86 03
-26) No response is received
-27) -
-28) Positive response is received:0x 62 F1 86 01
-29) -
-30) Positive response is received:0x 62 F1 86 02
-31) No response is received
-32) -
-33) Positive response is received:0x 62 F1 86 01
-34) -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
-2) DiagSessionCtrl(Default)
-3) RequestResponse(22f186,62f18601, Equal)
-4) FunctionalMessage(1181, , None)
-5) wait(7000)
-6) RequestResponse(22f186,62f18601, Equal)
-7) DiagSessionCtrl(Extended)
-8) RequestResponse(22f186,62f18603, Equal)
-9) FunctionalMessage(1181, , None)
-10) wait(7000)
-11) RequestResponse(22f186,62f18601, Equal)
-12) DiagSessionCtrl(Programming)
-13) RequestResponse(22f186,62f18602, Equal)
-14) FunctionalMessage(1181, , None)
-15) wait(7000)
-16) RequestResponse(22f186,62f18601, Equal)
-17) envvar(EnvTesterPresentOnOff(0;0))
-18) envvar(EnvTesterPresentOnOff(1;0))
-19) DiagSessionCtrl(Default)
-20) RequestResponse(22f186,62f18601, Equal)
-21) RequestResponse(1181, 7f517f, Equal)
-22) wait(7000)
-23) RequestResponse(22f186,62f18601, Equal)
-24) DiagSessionCtrl(Extended)
-25) RequestResponse(22f186,62f18603, Equal)
-26) RequestResponse(1181, , None)
-27) wait(7000)
-28) RequestResponse(22f186,62f18601, Equal)
-29) DiagSessionCtrl(Programming)
-30) RequestResponse(22f186,62f18602, Equal)
-31) RequestResponse(1181, , None)
-32) wait(7000)
-33) RequestResponse(22f186,62f18601, Equal)
-34) envvar(EnvTesterPresentOnOff(0;0))
-</t>
-  </si>
-  <si>
-    <t>2.1.2.9 Check all supported condition in service 0x11</t>
-  </si>
-  <si>
-    <t>2.1.2.10 Check all supported NRC in service 0x11</t>
-  </si>
-  <si>
-    <t>2.1.3.6 Check all allowed diagnostic sessions in service 0x14</t>
   </si>
   <si>
     <t xml:space="preserve">1) -
@@ -685,9 +379,6 @@
 16) RequestResponse(22f186,62f18601, Equal)
 17) envvar(EnvTesterPresentOnOff(0;0))
 </t>
-  </si>
-  <si>
-    <t>2.1.3.7 Check all supported addressing mode in service 0x14</t>
   </si>
   <si>
     <t xml:space="preserve">1) -
@@ -764,37 +455,7 @@
 </t>
   </si>
   <si>
-    <t>2.1.3.8 Check that service deletes the Failure Memory</t>
-  </si>
-  <si>
-    <t>2.1.3.9 Check all supported condition in service 0x14</t>
-  </si>
-  <si>
-    <t>2.1.3.10 Check all supported NRC in service 0x14</t>
-  </si>
-  <si>
     <t>2.1.4 Service 19h - ReadDTCInformation</t>
-  </si>
-  <si>
-    <t>2.1.4.6 Check all allowed diagnostic sessions in service 0x19</t>
-  </si>
-  <si>
-    <t>2.1.4.7 Check all supported addressing mode in service 0x19</t>
-  </si>
-  <si>
-    <t>2.1.4.8 Check suppress bit in service 0x19</t>
-  </si>
-  <si>
-    <t>2.1.4.8 Parametter Check for service 0x19</t>
-  </si>
-  <si>
-    <t>2.1.4.9 Check all supported condition in service 0x19</t>
-  </si>
-  <si>
-    <t>2.1.4.10 Check all supported NRC in service 0x19</t>
-  </si>
-  <si>
-    <t>2.1.5.6 Check all allowed diagnostic sessions in service 0x22</t>
   </si>
   <si>
     <t xml:space="preserve">1) -
@@ -829,9 +490,6 @@
 13) RequestResponse(22f186, 7f627f, Equal)
 14) envvar(EnvTesterPresentOnOff(0;0))
 </t>
-  </si>
-  <si>
-    <t>2.1.5.7 Check all supported addressing mode in service 0x22</t>
   </si>
   <si>
     <t xml:space="preserve">1) -
@@ -896,15 +554,6 @@
 </t>
   </si>
   <si>
-    <t>2.1.5.8 DID Check for service 0x22</t>
-  </si>
-  <si>
-    <t>2.1.5.9 Check all supported condition in service 0x22</t>
-  </si>
-  <si>
-    <t>2.1.5.10 Check all supported NRC in service 0x22</t>
-  </si>
-  <si>
     <t>2.1.6 Service 27h - Security Access</t>
   </si>
   <si>
@@ -914,22 +563,1408 @@
     <t>2.1.9 Service 2Fh - Input Output Control By Identifier</t>
   </si>
   <si>
-    <t>2.1.11 Service 3Eh - Tester Present</t>
-  </si>
-  <si>
-    <t>2.1.11.6 Check all allowed diagnostic sessions in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.1.11.7 Check all supported addressing mode in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.1.11.8 Check suppress bit in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.1.11.9 Check all supported condition in service 0x3E</t>
-  </si>
-  <si>
-    <t>2.1.11.10 Check all supported NRC in service 0x3E</t>
+    <t>2.1.1 Service 10h - Diagnostic Session Control</t>
+  </si>
+  <si>
+    <t>2.1.1.1 Check all allowed diagnostic sessions in service 0x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 86
+4) Tester present ON
+5) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+6) Wait 1000 ms
+7) Read active session with service 0x22 F1 86
+8) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+9) Wait 1000 ms
+10) Read active session with service 0x22 F1 86
+11) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+12) Wait 1000 ms
+13) Read active session with service 0x22 F1 86
+14) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Positive response is received: 0x50 01 00 32 01 90
+2) -
+3) Positive response is received:0x 62 F1 86 01
+4) -
+5) Positive response is received: 0x50 03 00 32 01 90
+6) -
+7) Positive response is received:0x 62 F1 86 03
+8) Positive response is received: 0x50 02 00 32 01 90
+9) -
+10) Positive response is received:0x 62 F1 86 02
+11) Positive response is received: 0x50 01 00 32 01 90
+12) -
+13) Positive response is received:0x 62 F1 86 01
+14) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) RequestResponse(1001, 500100320190, Equal)
+2) wait(1000)
+3) RequestResponse(22f186,62f18601, Equal)
+4) envvar(EnvTesterPresentOnOff(1;0))
+5) RequestResponse(1003, 500300320190, Equal)
+6) wait(1000)
+7) RequestResponse(22f186,62f18603, Equal)
+8) RequestResponse(1002, 500200320190, Equal)
+9) wait(1000)
+10) RequestResponse(22f186,62f18602, Equal)
+11) RequestResponse(1001, 500100320190, Equal)
+12) wait(1000)
+13) RequestResponse(22f186,62f18601, Equal)
+14) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.1.2 Session transitions</t>
+  </si>
+  <si>
+    <t>2.1.1.2.1 Session transitions - From Default Session</t>
+  </si>
+  <si>
+    <t>This testcase check all diagnostic sessions can be transited from Default session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+3) Read active session with service 0x22 F1 86
+4) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+5) Read active session with service 0x22 F1 86
+6) Tester present OFF
+7) Tester present ON
+8) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+9) Read active session with service 0x22 F1 86
+10) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+11) Read active session with service 0x22 F1 86
+12) Tester present OFF
+13) Tester present ON
+14) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+15) Read active session with service 0x22 F1 86
+16) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+17) Read active session with service 0x22 F1 86
+18) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) Positive response is received: 0x50 01 00 32 01 90
+3) Positive response is received:0x 62 F1 86 01
+4) Positive response is received: 0x50 01 00 32 01 90
+5) Positive response is received:0x 62 F1 86 01
+6) -
+7) -
+8) Positive response is received: 0x50 01 00 32 01 90
+9) Positive response is received:0x 62 F1 86 01
+10) Positive response is received: 0x50 02 00 32 01 90
+11) Positive response is received:0x 62 F1 86 02
+12) -
+13) -
+14) Positive response is received: 0x50 01 00 32 01 90
+15) Positive response is received:0x 62 F1 86 01
+16) Positive response is received: 0x50 03 00 32 01 90
+17) Positive response is received:0x 62 F1 86 03
+18) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1001, 500100320190, Equal)
+3) RequestResponse(22f186,62f18601, Equal)
+4) RequestResponse(1001, 500100320190, Equal)
+5) RequestResponse(22f186,62f18601, Equal)
+6) envvar(EnvTesterPresentOnOff(0;0))
+7) envvar(EnvTesterPresentOnOff(1;0))
+8) RequestResponse(1001, 500100320190, Equal)
+9) RequestResponse(22f186,62f18601, Equal)
+10) RequestResponse(1002, 500200320190, Equal)
+11) RequestResponse(22f186,62f18602, Equal)
+12) envvar(EnvTesterPresentOnOff(0;0))
+13) envvar(EnvTesterPresentOnOff(1;0))
+14) RequestResponse(1001, 500100320190, Equal)
+15) RequestResponse(22f186,62f18601, Equal)
+16) RequestResponse(1003, 500300320190, Equal)
+17) RequestResponse(22f186,62f18603, Equal)
+18) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.1.2.2 Session transitions - From Programming Session</t>
+  </si>
+  <si>
+    <t>This testcase check all diagnostic sessions can be transited from Programming session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+3) Read active session with service 0x22 F1 86
+4) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+5) Read active session with service 0x22 F1 86
+6) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+7) Read active session with service 0x22 F1 86
+8) Tester present OFF
+9) Tester present ON
+10) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+11) Read active session with service 0x22 F1 86
+12) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+13) Read active session with service 0x22 F1 86
+14) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+15) Read active session with service 0x22 F1 86
+16) Tester present OFF
+17) Tester present ON
+18) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+19) Read active session with service 0x22 F1 86
+20) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+21) Read active session with service 0x22 F1 86
+22) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+23) Read active session with service 0x22 F1 86
+24) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) Positive response is received: 0x50 01 00 32 01 90
+3) Positive response is received:0x 62 F1 86 01
+4) Positive response is received: 0x50 02 00 32 01 90
+5) Positive response is received:0x 62 F1 86 02
+6) Positive response is received: 0x50 01 00 32 01 90
+7) Positive response is received:0x 62 F1 86 01
+8) -
+9) -
+10) Positive response is received: 0x50 01 00 32 01 90
+11) Positive response is received:0x 62 F1 86 01
+12) Positive response is received: 0x50 02 00 32 01 90
+13) Positive response is received:0x 62 F1 86 02
+14) Positive response is received: 0x50 02 00 32 01 90
+15) Positive response is received:0x 62 F1 86 02
+16) -
+17) -
+18) Positive response is received: 0x50 01 00 32 01 90
+19) Positive response is received:0x 62 F1 86 01
+20) Positive response is received: 0x50 02 00 32 01 90
+21) Positive response is received:0x 62 F1 86 02
+22) Positive response is received: 0x50 03 00 32 01 90
+23) Positive response is received:0x 62 F1 86 03
+24) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1001, 500100320190, Equal)
+3) RequestResponse(22f186,62f18601, Equal)
+4) RequestResponse(1002, 500200320190, Equal)
+5) RequestResponse(22f186,62f18602, Equal)
+6) RequestResponse(1001, 500100320190, Equal)
+7) RequestResponse(22f186,62f18601, Equal)
+8) envvar(EnvTesterPresentOnOff(0;0))
+9) envvar(EnvTesterPresentOnOff(1;0))
+10) RequestResponse(1001, 500100320190, Equal)
+11) RequestResponse(22f186,62f18601, Equal)
+12) RequestResponse(1002, 500200320190, Equal)
+13) RequestResponse(22f186,62f18602, Equal)
+14) RequestResponse(1002, 500200320190, Equal)
+15) RequestResponse(22f186,62f18602, Equal)
+16) envvar(EnvTesterPresentOnOff(0;0))
+17) envvar(EnvTesterPresentOnOff(1;0))
+18) RequestResponse(1001, 500100320190, Equal)
+19) RequestResponse(22f186,62f18601, Equal)
+20) RequestResponse(1002, 500200320190, Equal)
+21) RequestResponse(22f186,62f18602, Equal)
+22) RequestResponse(1003, 500300320190, Equal)
+23) RequestResponse(22f186,62f18603, Equal)
+24) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.1.2.3 Session transitions - From Extended Session</t>
+  </si>
+  <si>
+    <t>This testcase check all diagnostic sessions can be transited from Extended session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+3) Read active session with service 0x22 F1 86
+4) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+5) Read active session with service 0x22 F1 86
+6) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+7) Read active session with service 0x22 F1 86
+8) Tester present OFF
+9) Tester present ON
+10) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+11) Read active session with service 0x22 F1 86
+12) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+13) Read active session with service 0x22 F1 86
+14) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+15) Read active session with service 0x22 F1 86
+16) Tester present OFF
+17) Tester present ON
+18) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+19) Read active session with service 0x22 F1 86
+20) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+21) Read active session with service 0x22 F1 86
+22) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+23) Read active session with service 0x22 F1 86
+24) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) Positive response is received: 0x50 01 00 32 01 90
+3) Positive response is received:0x 62 F1 86 01
+4) Positive response is received: 0x50 03 00 32 01 90
+5) Positive response is received:0x 62 F1 86 03
+6) Positive response is received: 0x50 01 00 32 01 90
+7) Positive response is received:0x 62 F1 86 01
+8) -
+9) -
+10) Positive response is received: 0x50 01 00 32 01 90
+11) Positive response is received:0x 62 F1 86 01
+12) Positive response is received: 0x50 03 00 32 01 90
+13) Positive response is received:0x 62 F1 86 03
+14) Negative response is received: 0x7F 50 7E
+15) Positive response is received:0x 62 F1 86 03
+16) -
+17) -
+18) Positive response is received: 0x50 01 00 32 01 90
+19) Positive response is received:0x 62 F1 86 01
+20) Positive response is received: 0x50 03 00 32 01 90
+21) Positive response is received:0x 62 F1 86 03
+22) Positive response is received: 0x50 03 00 32 01 90
+23) Positive response is received:0x 62 F1 86 03
+24) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) RequestResponse(1001, 500100320190, Equal)
+3) RequestResponse(22f186,62f18601, Equal)
+4) RequestResponse(1003, 500300320190, Equal)
+5) RequestResponse(22f186,62f18603, Equal)
+6) RequestResponse(1001, 500100320190, Equal)
+7) RequestResponse(22f186,62f18601, Equal)
+8) envvar(EnvTesterPresentOnOff(0;0))
+9) envvar(EnvTesterPresentOnOff(1;0))
+10) RequestResponse(1001, 500100320190, Equal)
+11) RequestResponse(22f186,62f18601, Equal)
+12) RequestResponse(1003, 500300320190, Equal)
+13) RequestResponse(22f186,62f18603, Equal)
+14) RequestResponse(1002, 7f507e, Equal)
+15) RequestResponse(22f186,62f18603, Equal)
+16) envvar(EnvTesterPresentOnOff(0;0))
+17) envvar(EnvTesterPresentOnOff(1;0))
+18) RequestResponse(1001, 500100320190, Equal)
+19) RequestResponse(22f186,62f18601, Equal)
+20) RequestResponse(1003, 500300320190, Equal)
+21) RequestResponse(22f186,62f18603, Equal)
+22) RequestResponse(1003, 500300320190, Equal)
+23) RequestResponse(22f186,62f18603, Equal)
+24) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.1.3 Check all supported addressing mode in service 0x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 86
+4) Tester present ON
+5) Request change the diagnostic session with service 0x10 03 in Functional Addressing Mode
+5) Wait 1000 ms
+6) Read active session with service 0x22 F1 86
+7) Request change the diagnostic session with service 0x10 02 in Functional Addressing Mode
+9) Wait 1000 ms
+10) Read active session with service 0x22 F1 86
+11) Request change the diagnostic session with service 0x10 01 in Functional Addressing Mode
+12) Wait 1000 ms
+13) Read active session with service 0x22 F1 86
+14) Tester present OFF
+15) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+16) Wait 1000 ms
+17) Read active session with service 0x22 F1 86
+18) Tester present ON
+19) Request change the diagnostic session with service 0x10 03 in Physical Addressing Mode
+19) Wait 1000 ms
+20) Read active session with service 0x22 F1 86
+21) Request change the diagnostic session with service 0x10 02 in Physical Addressing Mode
+23) Wait 1000 ms
+24) Read active session with service 0x22 F1 86
+25) Request change the diagnostic session with service 0x10 01 in Physical Addressing Mode
+26) Wait 1000 ms
+27) Read active session with service 0x22 F1 86
+28) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) No response is received
+2) -
+3) Positive response is received:0x 62 F1 86 01
+4) -
+5) No response is received
+5) -
+6) Positive response is received:0x 62 F1 86 03
+7) No response is received
+9) -
+10) Positive response is received:0x 62 F1 86 02
+11) No response is received
+12) -
+13) Positive response is received:0x 62 F1 86 01
+14) -
+15) Positive response is received: 0x50 01 00 32 01 90
+16) -
+17) Positive response is received:0x 62 F1 86 01
+18) -
+19) Negative response is received: 0x7F 50 7F
+19) -
+20) Positive response is received:0x 62 F1 86 03
+21) Positive response is received: 0x50 02 00 32 01 90
+23) -
+24) Positive response is received:0x 62 F1 86 02
+25) Positive response is received: 0x50 01 00 32 01 90
+26) -
+27) Positive response is received:0x 62 F1 86 01
+28) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FunctionalMessage(1001, , None)
+2) wait(1000)
+3) RequestResponse(22f186,62f18601, Equal)
+4) envvar(EnvTesterPresentOnOff(1;0))
+5) FunctionalMessage(1003, , None)
+5) wait(1000)
+6) RequestResponse(22f186,62f18603, Equal)
+7) FunctionalMessage(1002, , None)
+9) wait(1000)
+10) RequestResponse(22f186,62f18602, Equal)
+11) FunctionalMessage(1001, , None)
+12) wait(1000)
+13) RequestResponse(22f186,62f18601, Equal)
+14) envvar(EnvTesterPresentOnOff(0;0))
+15) RequestResponse(1001, 500100320190, Equal)
+16) wait(1000)
+17) RequestResponse(22f186,62f18601, Equal)
+18) envvar(EnvTesterPresentOnOff(1;0))
+19) RequestResponse(1003, 7f507f, Equal)
+19) wait(1000)
+20) RequestResponse(22f186,62f18603, Equal)
+21) RequestResponse(1002, 500200320190, Equal)
+23) wait(1000)
+24) RequestResponse(22f186,62f18602, Equal)
+25) RequestResponse(1001, 500100320190, Equal)
+26) wait(1000)
+27) RequestResponse(22f186,62f18601, Equal)
+28) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.1.4 Check suppress bit in service 0x10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
+2) Wait 1000 ms
+3) Read active session with service 0x22 F1 86
+4) Tester present ON
+5) Request change the diagnostic session with service 0x10 83 in Functional Addressing Mode
+5) Wait 1000 ms
+6) Read active session with service 0x22 F1 86
+7) Request change the diagnostic session with service 0x10 82 in Functional Addressing Mode
+9) Wait 1000 ms
+10) Read active session with service 0x22 F1 86
+11) Request change the diagnostic session with service 0x10 81 in Functional Addressing Mode
+12) Wait 1000 ms
+13) Read active session with service 0x22 F1 86
+14) Tester present OFF
+15) Request change the diagnostic session with service 0x10 81 in Physical Addressing Mode
+16) Wait 1000 ms
+17) Read active session with service 0x22 F1 86
+18) Tester present ON
+19) Request change the diagnostic session with service 0x10 83 in Physical Addressing Mode
+19) Wait 1000 ms
+20) Read active session with service 0x22 F1 86
+21) Request change the diagnostic session with service 0x10 82 in Physical Addressing Mode
+23) Wait 1000 ms
+24) Read active session with service 0x22 F1 86
+25) Request change the diagnostic session with service 0x10 81 in Physical Addressing Mode
+26) Wait 1000 ms
+27) Read active session with service 0x22 F1 86
+28) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) No response is received
+2) -
+3) Positive response is received:0x 62 F1 86 01
+4) -
+5) No response is received
+5) -
+6) Positive response is received:0x 62 F1 86 03
+7) Negative response is received: 0x7F 50 12
+9) -
+10) Positive response is received:0x 62 F1 86 02
+11) No response is received
+12) -
+13) Positive response is received:0x 62 F1 86 01
+14) -
+15) Negative response is received: 0x7F 50 12
+16) -
+17) Positive response is received:0x 62 F1 86 01
+18) -
+19) Negative response is received: 0x7F 50 7F
+19) -
+20) Positive response is received:0x 62 F1 86 03
+21) Negative response is received: 0x7F 50 12
+23) -
+24) Positive response is received:0x 62 F1 86 02
+25) Negative response is received: 0x7F 50 12
+26) -
+27) Positive response is received:0x 62 F1 86 01
+28) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) FunctionalMessage(1081, , None)
+2) wait(1000)
+3) RequestResponse(22f186,62f18601, Equal)
+4) envvar(EnvTesterPresentOnOff(1;0))
+5) FunctionalMessage(1083, , None)
+5) wait(1000)
+6) RequestResponse(22f186,62f18603, Equal)
+7) FunctionalMessage(1082, 7f5012, Equal)
+9) wait(1000)
+10) RequestResponse(22f186,62f18602, Equal)
+11) FunctionalMessage(1081, , None)
+12) wait(1000)
+13) RequestResponse(22f186,62f18601, Equal)
+14) envvar(EnvTesterPresentOnOff(0;0))
+15) RequestResponse(1081, 7f5012, Equal)
+16) wait(1000)
+17) RequestResponse(22f186,62f18601, Equal)
+18) envvar(EnvTesterPresentOnOff(1;0))
+19) RequestResponse(1083, 7f507f, Equal)
+19) wait(1000)
+20) RequestResponse(22f186,62f18603, Equal)
+21) RequestResponse(1082, 7f5012, Equal)
+23) wait(1000)
+24) RequestResponse(22f186,62f18602, Equal)
+25) RequestResponse(1081, 7f5012, Equal)
+26) wait(1000)
+27) RequestResponse(22f186,62f18601, Equal)
+28) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.1.5 Check all supported condition in service 0x10</t>
+  </si>
+  <si>
+    <t>2.1.1.6 Flashbootloader Transition during failure in pre-programming conditions</t>
+  </si>
+  <si>
+    <t>2.1.1.6.1 Flashbootloader Transition is not fulfilled because of vehicle speed</t>
+  </si>
+  <si>
+    <t>Flashbootloader Transition is not fulfilled because of vehicle speed</t>
+  </si>
+  <si>
+    <t>2.1.1.6.2 Flashbootloader Transition is not fulfilled because of engine is running</t>
+  </si>
+  <si>
+    <t>Flashbootloader Transition is not fulfilled because of engine is running</t>
+  </si>
+  <si>
+    <t>2.1.1.6.3 Flashbootloader Transition is not fulfilled because of security access</t>
+  </si>
+  <si>
+    <t>Flashbootloader Transition is not fulfilled because of security access</t>
+  </si>
+  <si>
+    <t>2.1.1.6.4 Flashbootloader Transition is not fulfilled because of programming attempts</t>
+  </si>
+  <si>
+    <t>Flashbootloader Transition is not fulfilled because of programming attempts</t>
+  </si>
+  <si>
+    <t>2.1.1.7 Check all supported NRC in service 0x10</t>
+  </si>
+  <si>
+    <t>2.1.2.1 Check all allowed diagnostic sessions in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Tester present OFF
+35) Tester present ON
+36) Change to Default session with service 0x10 01
+37) Read active session with service 0x22 F1 86
+38) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+39) Wait 7000 ms
+40) Read active session with service 0x22 F1 86
+41) Change to Extended session with service 0x10 03
+42) Read active session with service 0x22 F1 86
+43) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+44) Wait 7000 ms
+45) Read active session with service 0x22 F1 86
+46) Change to Programming session with service 0x10 02
+47) Read active session with service 0x22 F1 86
+48) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+49) Wait 7000 ms
+50) Read active session with service 0x22 F1 86
+51) Tester present OFF
+69) Tester present ON
+70) Change to Default session with service 0x10 01
+71) Read active session with service 0x22 F1 86
+72) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+73) Wait 7000 ms
+74) Read active session with service 0x22 F1 86
+75) Change to Extended session with service 0x10 03
+76) Read active session with service 0x22 F1 86
+77) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+78) Wait 7000 ms
+79) Read active session with service 0x22 F1 86
+80) Change to Programming session with service 0x10 02
+81) Read active session with service 0x22 F1 86
+82) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+83) Wait 7000 ms
+84) Read active session with service 0x22 F1 86
+85) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received:0x 62 F1 86 01
+4) Negative response is received: 0x7F 51 7F
+5) -
+6) Positive response is received:0x 62 F1 86 01
+7) -
+8) Positive response is received:0x 62 F1 86 03
+9) Positive response is received: 0x51 01
+10) -
+11) Positive response is received:0x 62 F1 86 01
+12) -
+13) Positive response is received:0x 62 F1 86 02
+14) Negative response is received: 0x7F 51 7F
+15) -
+16) Positive response is received:0x 62 F1 86 01
+17) -
+35) -
+36) -
+37) Positive response is received:0x 62 F1 86 01
+38) Negative response is received: 0x7F 51 7F
+39) -
+40) Positive response is received:0x 62 F1 86 01
+41) -
+42) Positive response is received:0x 62 F1 86 03
+43) Positive response is received: 0x51 02
+44) -
+45) Positive response is received:0x 62 F1 86 01
+46) -
+47) Positive response is received:0x 62 F1 86 02
+48) Negative response is received: 0x7F 51 7F
+49) -
+50) Positive response is received:0x 62 F1 86 01
+51) -
+69) -
+70) -
+71) Positive response is received:0x 62 F1 86 01
+72) Negative response is received: 0x7F 51 7F
+73) -
+74) Positive response is received:0x 62 F1 86 01
+75) -
+76) Positive response is received:0x 62 F1 86 03
+77) Positive response is received: 0x51 03
+78) -
+79) Positive response is received:0x 62 F1 86 01
+80) -
+81) Positive response is received:0x 62 F1 86 02
+82) Negative response is received: 0x7F 51 7F
+83) -
+84) Positive response is received:0x 62 F1 86 01
+85) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186,62f18601, Equal)
+4) RequestResponse(1101, 7f517f, Equal)
+5) wait(7000)
+6) RequestResponse(22f186,62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186,62f18603, Equal)
+9) RequestResponse(1101, 5101, Equal)
+10) wait(7000)
+11) RequestResponse(22f186,62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186,62f18602, Equal)
+14) RequestResponse(1101, 7f517f, Equal)
+15) wait(7000)
+16) RequestResponse(22f186,62f18601, Equal)
+17) envvar(EnvTesterPresentOnOff(0;0))
+35) envvar(EnvTesterPresentOnOff(1;0))
+36) DiagSessionCtrl(Default)
+37) RequestResponse(22f186,62f18601, Equal)
+38) RequestResponse(1102, 7f517f, Equal)
+39) wait(7000)
+40) RequestResponse(22f186,62f18601, Equal)
+41) DiagSessionCtrl(Extended)
+42) RequestResponse(22f186,62f18603, Equal)
+43) RequestResponse(1102, 5102, Equal)
+44) wait(7000)
+45) RequestResponse(22f186,62f18601, Equal)
+46) DiagSessionCtrl(Programming)
+47) RequestResponse(22f186,62f18602, Equal)
+48) RequestResponse(1102, 7f517f, Equal)
+49) wait(7000)
+50) RequestResponse(22f186,62f18601, Equal)
+51) envvar(EnvTesterPresentOnOff(0;0))
+69) envvar(EnvTesterPresentOnOff(1;0))
+70) DiagSessionCtrl(Default)
+71) RequestResponse(22f186,62f18601, Equal)
+72) RequestResponse(1103, 7f517f, Equal)
+73) wait(7000)
+74) RequestResponse(22f186,62f18601, Equal)
+75) DiagSessionCtrl(Extended)
+76) RequestResponse(22f186,62f18603, Equal)
+77) RequestResponse(1103, 5103, Equal)
+78) wait(7000)
+79) RequestResponse(22f186,62f18601, Equal)
+80) DiagSessionCtrl(Programming)
+81) RequestResponse(22f186,62f18602, Equal)
+82) RequestResponse(1103, 7f517f, Equal)
+83) wait(7000)
+84) RequestResponse(22f186,62f18601, Equal)
+85) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.2.2 Check all supported addressing mode in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request reset the camera with service 0x11 01 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Tester present OFF
+18) Tester present ON
+19) Change to Default session with service 0x10 01
+20) Read active session with service 0x22 F1 86
+21) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+22) Wait 7000 ms
+23) Read active session with service 0x22 F1 86
+24) Change to Extended session with service 0x10 03
+25) Read active session with service 0x22 F1 86
+26) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+27) Wait 7000 ms
+28) Read active session with service 0x22 F1 86
+29) Change to Programming session with service 0x10 02
+30) Read active session with service 0x22 F1 86
+31) Request reset the camera with service 0x11 02 in Functional Addressing Mode
+32) Wait 7000 ms
+33) Read active session with service 0x22 F1 86
+34) Tester present OFF
+35) Tester present ON
+36) Change to Default session with service 0x10 01
+37) Read active session with service 0x22 F1 86
+38) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+39) Wait 7000 ms
+40) Read active session with service 0x22 F1 86
+41) Change to Extended session with service 0x10 03
+42) Read active session with service 0x22 F1 86
+43) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+44) Wait 7000 ms
+45) Read active session with service 0x22 F1 86
+46) Change to Programming session with service 0x10 02
+47) Read active session with service 0x22 F1 86
+48) Request reset the camera with service 0x11 03 in Functional Addressing Mode
+49) Wait 7000 ms
+50) Read active session with service 0x22 F1 86
+51) Tester present OFF
+52) Tester present ON
+53) Change to Default session with service 0x10 01
+54) Read active session with service 0x22 F1 86
+55) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+56) Wait 7000 ms
+57) Read active session with service 0x22 F1 86
+58) Change to Extended session with service 0x10 03
+59) Read active session with service 0x22 F1 86
+60) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+61) Wait 7000 ms
+62) Read active session with service 0x22 F1 86
+63) Change to Programming session with service 0x10 02
+64) Read active session with service 0x22 F1 86
+65) Request reset the camera with service 0x11 01 in Physical Addressing Mode
+66) Wait 7000 ms
+67) Read active session with service 0x22 F1 86
+68) Tester present OFF
+69) Tester present ON
+70) Change to Default session with service 0x10 01
+71) Read active session with service 0x22 F1 86
+72) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+73) Wait 7000 ms
+74) Read active session with service 0x22 F1 86
+75) Change to Extended session with service 0x10 03
+76) Read active session with service 0x22 F1 86
+77) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+78) Wait 7000 ms
+79) Read active session with service 0x22 F1 86
+80) Change to Programming session with service 0x10 02
+81) Read active session with service 0x22 F1 86
+82) Request reset the camera with service 0x11 02 in Physical Addressing Mode
+83) Wait 7000 ms
+84) Read active session with service 0x22 F1 86
+85) Tester present OFF
+86) Tester present ON
+87) Change to Default session with service 0x10 01
+88) Read active session with service 0x22 F1 86
+89) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+90) Wait 7000 ms
+91) Read active session with service 0x22 F1 86
+92) Change to Extended session with service 0x10 03
+93) Read active session with service 0x22 F1 86
+94) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+95) Wait 7000 ms
+96) Read active session with service 0x22 F1 86
+97) Change to Programming session with service 0x10 02
+98) Read active session with service 0x22 F1 86
+99) Request reset the camera with service 0x11 03 in Physical Addressing Mode
+100) Wait 7000 ms
+101) Read active session with service 0x22 F1 86
+102) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received:0x 62 F1 86 01
+4) No response is received
+5) -
+6) Positive response is received:0x 62 F1 86 01
+7) -
+8) Positive response is received:0x 62 F1 86 03
+9) No response is received
+10) -
+11) Positive response is received:0x 62 F1 86 01
+12) -
+13) Positive response is received:0x 62 F1 86 02
+14) No response is received
+15) -
+16) Positive response is received:0x 62 F1 86 01
+17) -
+18) -
+19) -
+20) Positive response is received:0x 62 F1 86 01
+21) No response is received
+22) -
+23) Positive response is received:0x 62 F1 86 01
+24) -
+25) Positive response is received:0x 62 F1 86 03
+26) No response is received
+27) -
+28) Positive response is received:0x 62 F1 86 01
+29) -
+30) Positive response is received:0x 62 F1 86 02
+31) No response is received
+32) -
+33) Positive response is received:0x 62 F1 86 01
+34) -
+35) -
+36) -
+37) Positive response is received:0x 62 F1 86 01
+38) No response is received
+39) -
+40) Positive response is received:0x 62 F1 86 01
+41) -
+42) Positive response is received:0x 62 F1 86 03
+43) No response is received
+44) -
+45) Positive response is received:0x 62 F1 86 01
+46) -
+47) Positive response is received:0x 62 F1 86 02
+48) No response is received
+49) -
+50) Positive response is received:0x 62 F1 86 01
+51) -
+52) -
+53) -
+54) Positive response is received:0x 62 F1 86 01
+55) Negative response is received: 0x7F 51 7F
+56) -
+57) Positive response is received:0x 62 F1 86 01
+58) -
+59) Positive response is received:0x 62 F1 86 03
+60) Positive response is received: 0x51 01
+61) -
+62) Positive response is received:0x 62 F1 86 01
+63) -
+64) Positive response is received:0x 62 F1 86 02
+65) Negative response is received: 0x7F 51 7F
+66) -
+67) Positive response is received:0x 62 F1 86 01
+68) -
+69) -
+70) -
+71) Positive response is received:0x 62 F1 86 01
+72) Negative response is received: 0x7F 51 7F
+73) -
+74) Positive response is received:0x 62 F1 86 01
+75) -
+76) Positive response is received:0x 62 F1 86 03
+77) Positive response is received: 0x51 02
+78) -
+79) Positive response is received:0x 62 F1 86 01
+80) -
+81) Positive response is received:0x 62 F1 86 02
+82) Negative response is received: 0x7F 51 7F
+83) -
+84) Positive response is received:0x 62 F1 86 01
+85) -
+86) -
+87) -
+88) Positive response is received:0x 62 F1 86 01
+89) Negative response is received: 0x7F 51 7F
+90) -
+91) Positive response is received:0x 62 F1 86 01
+92) -
+93) Positive response is received:0x 62 F1 86 03
+94) Positive response is received: 0x51 03
+95) -
+96) Positive response is received:0x 62 F1 86 01
+97) -
+98) Positive response is received:0x 62 F1 86 02
+99) Negative response is received: 0x7F 51 7F
+100) -
+101) Positive response is received:0x 62 F1 86 01
+102) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186,62f18601, Equal)
+4) FunctionalMessage(1101, , None)
+5) wait(7000)
+6) RequestResponse(22f186,62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186,62f18603, Equal)
+9) FunctionalMessage(1101, , None)
+10) wait(7000)
+11) RequestResponse(22f186,62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186,62f18602, Equal)
+14) FunctionalMessage(1101, , None)
+15) wait(7000)
+16) RequestResponse(22f186,62f18601, Equal)
+17) envvar(EnvTesterPresentOnOff(0;0))
+18) envvar(EnvTesterPresentOnOff(1;0))
+19) DiagSessionCtrl(Default)
+20) RequestResponse(22f186,62f18601, Equal)
+21) FunctionalMessage(1102, , None)
+22) wait(7000)
+23) RequestResponse(22f186,62f18601, Equal)
+24) DiagSessionCtrl(Extended)
+25) RequestResponse(22f186,62f18603, Equal)
+26) FunctionalMessage(1102, , None)
+27) wait(7000)
+28) RequestResponse(22f186,62f18601, Equal)
+29) DiagSessionCtrl(Programming)
+30) RequestResponse(22f186,62f18602, Equal)
+31) FunctionalMessage(1102, , None)
+32) wait(7000)
+33) RequestResponse(22f186,62f18601, Equal)
+34) envvar(EnvTesterPresentOnOff(0;0))
+35) envvar(EnvTesterPresentOnOff(1;0))
+36) DiagSessionCtrl(Default)
+37) RequestResponse(22f186,62f18601, Equal)
+38) FunctionalMessage(1103, , None)
+39) wait(7000)
+40) RequestResponse(22f186,62f18601, Equal)
+41) DiagSessionCtrl(Extended)
+42) RequestResponse(22f186,62f18603, Equal)
+43) FunctionalMessage(1103, , None)
+44) wait(7000)
+45) RequestResponse(22f186,62f18601, Equal)
+46) DiagSessionCtrl(Programming)
+47) RequestResponse(22f186,62f18602, Equal)
+48) FunctionalMessage(1103, , None)
+49) wait(7000)
+50) RequestResponse(22f186,62f18601, Equal)
+51) envvar(EnvTesterPresentOnOff(0;0))
+52) envvar(EnvTesterPresentOnOff(1;0))
+53) DiagSessionCtrl(Default)
+54) RequestResponse(22f186,62f18601, Equal)
+55) RequestResponse(1101, 7f517f, Equal)
+56) wait(7000)
+57) RequestResponse(22f186,62f18601, Equal)
+58) DiagSessionCtrl(Extended)
+59) RequestResponse(22f186,62f18603, Equal)
+60) RequestResponse(1101, 5101, Equal)
+61) wait(7000)
+62) RequestResponse(22f186,62f18601, Equal)
+63) DiagSessionCtrl(Programming)
+64) RequestResponse(22f186,62f18602, Equal)
+65) RequestResponse(1101, 7f517f, Equal)
+66) wait(7000)
+67) RequestResponse(22f186,62f18601, Equal)
+68) envvar(EnvTesterPresentOnOff(0;0))
+69) envvar(EnvTesterPresentOnOff(1;0))
+70) DiagSessionCtrl(Default)
+71) RequestResponse(22f186,62f18601, Equal)
+72) RequestResponse(1102, 7f517f, Equal)
+73) wait(7000)
+74) RequestResponse(22f186,62f18601, Equal)
+75) DiagSessionCtrl(Extended)
+76) RequestResponse(22f186,62f18603, Equal)
+77) RequestResponse(1102, 5102, Equal)
+78) wait(7000)
+79) RequestResponse(22f186,62f18601, Equal)
+80) DiagSessionCtrl(Programming)
+81) RequestResponse(22f186,62f18602, Equal)
+82) RequestResponse(1102, 7f517f, Equal)
+83) wait(7000)
+84) RequestResponse(22f186,62f18601, Equal)
+85) envvar(EnvTesterPresentOnOff(0;0))
+86) envvar(EnvTesterPresentOnOff(1;0))
+87) DiagSessionCtrl(Default)
+88) RequestResponse(22f186,62f18601, Equal)
+89) RequestResponse(1103, 7f517f, Equal)
+90) wait(7000)
+91) RequestResponse(22f186,62f18601, Equal)
+92) DiagSessionCtrl(Extended)
+93) RequestResponse(22f186,62f18603, Equal)
+94) RequestResponse(1103, 5103, Equal)
+95) wait(7000)
+96) RequestResponse(22f186,62f18601, Equal)
+97) DiagSessionCtrl(Programming)
+98) RequestResponse(22f186,62f18602, Equal)
+99) RequestResponse(1103, 7f517f, Equal)
+100) wait(7000)
+101) RequestResponse(22f186,62f18601, Equal)
+102) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.2.3 Check suppress bit in service 0x11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tester present ON
+2) Change to Default session with service 0x10 01
+3) Read active session with service 0x22 F1 86
+4) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+5) Wait 7000 ms
+6) Read active session with service 0x22 F1 86
+7) Change to Extended session with service 0x10 03
+8) Read active session with service 0x22 F1 86
+9) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+10) Wait 7000 ms
+11) Read active session with service 0x22 F1 86
+12) Change to Programming session with service 0x10 02
+13) Read active session with service 0x22 F1 86
+14) Request reset the camera with service 0x11 81 in Functional Addressing Mode
+15) Wait 7000 ms
+16) Read active session with service 0x22 F1 86
+17) Tester present OFF
+18) Tester present ON
+19) Change to Default session with service 0x10 01
+20) Read active session with service 0x22 F1 86
+21) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+22) Wait 7000 ms
+23) Read active session with service 0x22 F1 86
+24) Change to Extended session with service 0x10 03
+25) Read active session with service 0x22 F1 86
+26) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+27) Wait 7000 ms
+28) Read active session with service 0x22 F1 86
+29) Change to Programming session with service 0x10 02
+30) Read active session with service 0x22 F1 86
+31) Request reset the camera with service 0x11 82 in Functional Addressing Mode
+32) Wait 7000 ms
+33) Read active session with service 0x22 F1 86
+34) Tester present OFF
+35) Tester present ON
+36) Change to Default session with service 0x10 01
+37) Read active session with service 0x22 F1 86
+38) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+39) Wait 7000 ms
+40) Read active session with service 0x22 F1 86
+41) Change to Extended session with service 0x10 03
+42) Read active session with service 0x22 F1 86
+43) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+44) Wait 7000 ms
+45) Read active session with service 0x22 F1 86
+46) Change to Programming session with service 0x10 02
+47) Read active session with service 0x22 F1 86
+48) Request reset the camera with service 0x11 83 in Functional Addressing Mode
+49) Wait 7000 ms
+50) Read active session with service 0x22 F1 86
+51) Tester present OFF
+52) Tester present ON
+53) Change to Default session with service 0x10 01
+54) Read active session with service 0x22 F1 86
+55) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+56) Wait 7000 ms
+57) Read active session with service 0x22 F1 86
+58) Change to Extended session with service 0x10 03
+59) Read active session with service 0x22 F1 86
+60) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+61) Wait 7000 ms
+62) Read active session with service 0x22 F1 86
+63) Change to Programming session with service 0x10 02
+64) Read active session with service 0x22 F1 86
+65) Request reset the camera with service 0x11 81 in Physical Addressing Mode
+66) Wait 7000 ms
+67) Read active session with service 0x22 F1 86
+68) Tester present OFF
+69) Tester present ON
+70) Change to Default session with service 0x10 01
+71) Read active session with service 0x22 F1 86
+72) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+73) Wait 7000 ms
+74) Read active session with service 0x22 F1 86
+75) Change to Extended session with service 0x10 03
+76) Read active session with service 0x22 F1 86
+77) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+78) Wait 7000 ms
+79) Read active session with service 0x22 F1 86
+80) Change to Programming session with service 0x10 02
+81) Read active session with service 0x22 F1 86
+82) Request reset the camera with service 0x11 82 in Physical Addressing Mode
+83) Wait 7000 ms
+84) Read active session with service 0x22 F1 86
+85) Tester present OFF
+86) Tester present ON
+87) Change to Default session with service 0x10 01
+88) Read active session with service 0x22 F1 86
+89) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+90) Wait 7000 ms
+91) Read active session with service 0x22 F1 86
+92) Change to Extended session with service 0x10 03
+93) Read active session with service 0x22 F1 86
+94) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+95) Wait 7000 ms
+96) Read active session with service 0x22 F1 86
+97) Change to Programming session with service 0x10 02
+98) Read active session with service 0x22 F1 86
+99) Request reset the camera with service 0x11 83 in Physical Addressing Mode
+100) Wait 7000 ms
+101) Read active session with service 0x22 F1 86
+102) Tester present OFF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) -
+2) -
+3) Positive response is received:0x 62 F1 86 01
+4) No response is received
+5) -
+6) Positive response is received:0x 62 F1 86 01
+7) -
+8) Positive response is received:0x 62 F1 86 03
+9) No response is received
+10) -
+11) Positive response is received:0x 62 F1 86 01
+12) -
+13) Positive response is received:0x 62 F1 86 02
+14) No response is received
+15) -
+16) Positive response is received:0x 62 F1 86 01
+17) -
+18) -
+19) -
+20) Positive response is received:0x 62 F1 86 01
+21) No response is received
+22) -
+23) Positive response is received:0x 62 F1 86 01
+24) -
+25) Positive response is received:0x 62 F1 86 03
+26) No response is received
+27) -
+28) Positive response is received:0x 62 F1 86 01
+29) -
+30) Positive response is received:0x 62 F1 86 02
+31) No response is received
+32) -
+33) Positive response is received:0x 62 F1 86 01
+34) -
+35) -
+36) -
+37) Positive response is received:0x 62 F1 86 01
+38) No response is received
+39) -
+40) Positive response is received:0x 62 F1 86 01
+41) -
+42) Positive response is received:0x 62 F1 86 03
+43) No response is received
+44) -
+45) Positive response is received:0x 62 F1 86 01
+46) -
+47) Positive response is received:0x 62 F1 86 02
+48) No response is received
+49) -
+50) Positive response is received:0x 62 F1 86 01
+51) -
+52) -
+53) -
+54) Positive response is received:0x 62 F1 86 01
+55) Negative response is received: 0x7F 51 7F
+56) -
+57) Positive response is received:0x 62 F1 86 01
+58) -
+59) Positive response is received:0x 62 F1 86 03
+60) No response is received
+61) -
+62) Positive response is received:0x 62 F1 86 01
+63) -
+64) Positive response is received:0x 62 F1 86 02
+65) Negative response is received: 0x7F 51 7F
+66) -
+67) Positive response is received:0x 62 F1 86 01
+68) -
+69) -
+70) -
+71) Positive response is received:0x 62 F1 86 01
+72) Negative response is received: 0x7F 51 7F
+73) -
+74) Positive response is received:0x 62 F1 86 01
+75) -
+76) Positive response is received:0x 62 F1 86 03
+77) No response is received
+78) -
+79) Positive response is received:0x 62 F1 86 01
+80) -
+81) Positive response is received:0x 62 F1 86 02
+82) Negative response is received: 0x7F 51 7F
+83) -
+84) Positive response is received:0x 62 F1 86 01
+85) -
+86) -
+87) -
+88) Positive response is received:0x 62 F1 86 01
+89) Negative response is received: 0x7F 51 7F
+90) -
+91) Positive response is received:0x 62 F1 86 01
+92) -
+93) Positive response is received:0x 62 F1 86 03
+94) No response is received
+95) -
+96) Positive response is received:0x 62 F1 86 01
+97) -
+98) Positive response is received:0x 62 F1 86 02
+99) Negative response is received: 0x7F 51 7F
+100) -
+101) Positive response is received:0x 62 F1 86 01
+102) -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) envvar(EnvTesterPresentOnOff(1;0))
+2) DiagSessionCtrl(Default)
+3) RequestResponse(22f186,62f18601, Equal)
+4) FunctionalMessage(1181, , None)
+5) wait(7000)
+6) RequestResponse(22f186,62f18601, Equal)
+7) DiagSessionCtrl(Extended)
+8) RequestResponse(22f186,62f18603, Equal)
+9) FunctionalMessage(1181, , None)
+10) wait(7000)
+11) RequestResponse(22f186,62f18601, Equal)
+12) DiagSessionCtrl(Programming)
+13) RequestResponse(22f186,62f18602, Equal)
+14) FunctionalMessage(1181, , None)
+15) wait(7000)
+16) RequestResponse(22f186,62f18601, Equal)
+17) envvar(EnvTesterPresentOnOff(0;0))
+18) envvar(EnvTesterPresentOnOff(1;0))
+19) DiagSessionCtrl(Default)
+20) RequestResponse(22f186,62f18601, Equal)
+21) FunctionalMessage(1182, , None)
+22) wait(7000)
+23) RequestResponse(22f186,62f18601, Equal)
+24) DiagSessionCtrl(Extended)
+25) RequestResponse(22f186,62f18603, Equal)
+26) FunctionalMessage(1182, , None)
+27) wait(7000)
+28) RequestResponse(22f186,62f18601, Equal)
+29) DiagSessionCtrl(Programming)
+30) RequestResponse(22f186,62f18602, Equal)
+31) FunctionalMessage(1182, , None)
+32) wait(7000)
+33) RequestResponse(22f186,62f18601, Equal)
+34) envvar(EnvTesterPresentOnOff(0;0))
+35) envvar(EnvTesterPresentOnOff(1;0))
+36) DiagSessionCtrl(Default)
+37) RequestResponse(22f186,62f18601, Equal)
+38) FunctionalMessage(1183, , None)
+39) wait(7000)
+40) RequestResponse(22f186,62f18601, Equal)
+41) DiagSessionCtrl(Extended)
+42) RequestResponse(22f186,62f18603, Equal)
+43) FunctionalMessage(1183, , None)
+44) wait(7000)
+45) RequestResponse(22f186,62f18601, Equal)
+46) DiagSessionCtrl(Programming)
+47) RequestResponse(22f186,62f18602, Equal)
+48) FunctionalMessage(1183, , None)
+49) wait(7000)
+50) RequestResponse(22f186,62f18601, Equal)
+51) envvar(EnvTesterPresentOnOff(0;0))
+52) envvar(EnvTesterPresentOnOff(1;0))
+53) DiagSessionCtrl(Default)
+54) RequestResponse(22f186,62f18601, Equal)
+55) RequestResponse(1181, 7f517f, Equal)
+56) wait(7000)
+57) RequestResponse(22f186,62f18601, Equal)
+58) DiagSessionCtrl(Extended)
+59) RequestResponse(22f186,62f18603, Equal)
+60) RequestResponse(1181, , None)
+61) wait(7000)
+62) RequestResponse(22f186,62f18601, Equal)
+63) DiagSessionCtrl(Programming)
+64) RequestResponse(22f186,62f18602, Equal)
+65) RequestResponse(1181, 7f517f, Equal)
+66) wait(7000)
+67) RequestResponse(22f186,62f18601, Equal)
+68) envvar(EnvTesterPresentOnOff(0;0))
+69) envvar(EnvTesterPresentOnOff(1;0))
+70) DiagSessionCtrl(Default)
+71) RequestResponse(22f186,62f18601, Equal)
+72) RequestResponse(1182, 7f517f, Equal)
+73) wait(7000)
+74) RequestResponse(22f186,62f18601, Equal)
+75) DiagSessionCtrl(Extended)
+76) RequestResponse(22f186,62f18603, Equal)
+77) RequestResponse(1182, , None)
+78) wait(7000)
+79) RequestResponse(22f186,62f18601, Equal)
+80) DiagSessionCtrl(Programming)
+81) RequestResponse(22f186,62f18602, Equal)
+82) RequestResponse(1182, 7f517f, Equal)
+83) wait(7000)
+84) RequestResponse(22f186,62f18601, Equal)
+85) envvar(EnvTesterPresentOnOff(0;0))
+86) envvar(EnvTesterPresentOnOff(1;0))
+87) DiagSessionCtrl(Default)
+88) RequestResponse(22f186,62f18601, Equal)
+89) RequestResponse(1183, 7f517f, Equal)
+90) wait(7000)
+91) RequestResponse(22f186,62f18601, Equal)
+92) DiagSessionCtrl(Extended)
+93) RequestResponse(22f186,62f18603, Equal)
+94) RequestResponse(1183, , None)
+95) wait(7000)
+96) RequestResponse(22f186,62f18601, Equal)
+97) DiagSessionCtrl(Programming)
+98) RequestResponse(22f186,62f18602, Equal)
+99) RequestResponse(1183, 7f517f, Equal)
+100) wait(7000)
+101) RequestResponse(22f186,62f18601, Equal)
+102) envvar(EnvTesterPresentOnOff(0;0))
+</t>
+  </si>
+  <si>
+    <t>2.1.2.4 Check all supported condition in service 0x11</t>
+  </si>
+  <si>
+    <t>2.1.2.5 Check all supported NRC in service 0x11</t>
+  </si>
+  <si>
+    <t>2.1.3.1 Check all allowed diagnostic sessions in service 0x14</t>
+  </si>
+  <si>
+    <t>2.1.3.2 Check all supported addressing mode in service 0x14</t>
+  </si>
+  <si>
+    <t>2.1.3.3 Check that service deletes the Failure Memory</t>
+  </si>
+  <si>
+    <t>2.1.3.4 Check all supported condition in service 0x14</t>
+  </si>
+  <si>
+    <t>2.1.3.5 Check all supported NRC in service 0x14</t>
+  </si>
+  <si>
+    <t>2.1.4.1 Check all allowed diagnostic sessions in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.2 Check all supported addressing mode in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.3 Check suppress bit in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.3 Parametter Check for service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.4 Check all supported condition in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.4.5 Check all supported NRC in service 0x19</t>
+  </si>
+  <si>
+    <t>2.1.5.1 Check all allowed diagnostic sessions in service 0x22</t>
+  </si>
+  <si>
+    <t>2.1.5.2 Check all supported addressing mode in service 0x22</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_41</t>
+  </si>
+  <si>
+    <t>2.1.5.3 DID Check for service 0x22</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_42</t>
+  </si>
+  <si>
+    <t>2.1.5.4 Check all supported condition in service 0x22</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_43</t>
+  </si>
+  <si>
+    <t>2.1.5.5 Check all supported NRC in service 0x22</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_44</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_45</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_46</t>
+  </si>
+  <si>
+    <t>SAIC_AS28_R1.0_DCOM_47</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C48197-75ED-450E-83C6-A6D9065ABCDF}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1415,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1432,19 +2467,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>20</v>
@@ -1457,52 +2492,40 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>20</v>
@@ -1519,14 +2542,20 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1542,14 +2571,20 @@
         <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1561,40 +2596,52 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>20</v>
@@ -1611,20 +2658,14 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1636,37 +2677,31 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1686,10 +2721,10 @@
         <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1705,31 +2740,37 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1749,10 +2790,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1768,58 +2809,70 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1835,14 +2888,20 @@
         <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1854,41 +2913,41 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1900,64 +2959,70 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1973,10 +3038,10 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1992,45 +3057,57 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2043,88 +3120,100 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2144,10 +3233,10 @@
         <v>63</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2163,41 +3252,41 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="G39" s="4" t="s">
         <v>20</v>
       </c>
@@ -2209,21 +3298,164 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
